--- a/DesafioCarreira/src/test/resources/ArquivoExcel.xlsx
+++ b/DesafioCarreira/src/test/resources/ArquivoExcel.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>alan.jesus</t>
+    <t>TESTE1</t>
   </si>
   <si>
-    <t>pedro</t>
+    <t>TESTE2</t>
   </si>
   <si>
-    <t>xx</t>
+    <t>TESTE3</t>
   </si>
   <si>
-    <t>ricardo</t>
+    <t>1</t>
   </si>
   <si>
-    <t>dd</t>
+    <t>2</t>
   </si>
   <si>
-    <t>133</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:BC99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -508,10 +508,10 @@
     </row>
     <row r="3" spans="1:55">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
